--- a/cta策略/result/螺纹/MA_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/MA_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>参数</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t>绩效数据</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -416,17 +440,17 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.03376095278818536</v>
+        <v>-0.02265431798080264</v>
       </c>
       <c r="D2">
-        <v>-0.2717797336200307</v>
+        <v>-0.2826622979473762</v>
       </c>
       <c r="E2">
-        <v>-0.05979457234747663</v>
+        <v>-0.04012343087544282</v>
       </c>
       <c r="F2">
         <v>0.6</v>
@@ -436,17 +460,17 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.09982194891921736</v>
+        <v>0.06554291857625949</v>
       </c>
       <c r="D3">
-        <v>0.2223757429101614</v>
+        <v>0.116239366494271</v>
       </c>
       <c r="E3">
-        <v>0.2805085446217261</v>
+        <v>0.1841814240169314</v>
       </c>
       <c r="F3">
         <v>0.55</v>
@@ -456,17 +480,17 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>30</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.2232724876466212</v>
+        <v>0.1439232018521708</v>
       </c>
       <c r="D4">
-        <v>0.6862654582255131</v>
+        <v>0.4762119307585325</v>
       </c>
       <c r="E4">
-        <v>0.6396702535207737</v>
+        <v>0.4123364772197573</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -476,17 +500,17 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>40</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1437805137858708</v>
+        <v>0.09377292240016177</v>
       </c>
       <c r="D5">
-        <v>0.3892811688192845</v>
+        <v>0.2468978427726544</v>
       </c>
       <c r="E5">
-        <v>0.3204274952512846</v>
+        <v>0.2089811884510713</v>
       </c>
       <c r="F5">
         <v>0.7</v>
@@ -496,17 +520,17 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>60</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1218124931034275</v>
+        <v>0.07971117204077349</v>
       </c>
       <c r="D6">
-        <v>0.3086916425652919</v>
+        <v>0.1834211028599851</v>
       </c>
       <c r="E6">
-        <v>0.3514428426726852</v>
+        <v>0.2299757617717839</v>
       </c>
       <c r="F6">
         <v>0.6</v>
@@ -516,17 +540,17 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>80</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.04178046164896987</v>
+        <v>0.02768630034995989</v>
       </c>
       <c r="D7">
-        <v>0.006761899019547993</v>
+        <v>-0.05725673059850861</v>
       </c>
       <c r="E7">
-        <v>0.08443579460021729</v>
+        <v>0.05595234416579922</v>
       </c>
       <c r="F7">
         <v>0.65</v>
@@ -536,17 +560,17 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>100</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1639453261863431</v>
+        <v>0.1066015154572932</v>
       </c>
       <c r="D8">
-        <v>0.4743218259449129</v>
+        <v>0.3119632235877381</v>
       </c>
       <c r="E8">
-        <v>0.4434220972140907</v>
+        <v>0.2883245814311656</v>
       </c>
       <c r="F8">
         <v>0.6</v>
@@ -556,17 +580,17 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>120</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.2110899301452662</v>
+        <v>0.1363094146864432</v>
       </c>
       <c r="D9">
-        <v>0.6571052319656941</v>
+        <v>0.4526718879344949</v>
       </c>
       <c r="E9">
-        <v>0.5920415295186655</v>
+        <v>0.3823054671685182</v>
       </c>
       <c r="F9">
         <v>0.65</v>

--- a/cta策略/result/螺纹/MA_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/MA_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>参数</t>
   </si>
@@ -34,6 +34,9 @@
     <t>绩效数据</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -46,13 +49,25 @@
     <t>40</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>120</t>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,16 +459,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.02265431798080264</v>
+        <v>-0.04569343663559566</v>
       </c>
       <c r="D2">
-        <v>-0.2826622979473762</v>
+        <v>-0.3853279155616326</v>
       </c>
       <c r="E2">
-        <v>-0.04012343087544282</v>
+        <v>-0.1182785172708279</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,16 +479,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.06554291857625949</v>
+        <v>-0.02007772530252905</v>
       </c>
       <c r="D3">
-        <v>0.116239366494271</v>
+        <v>-0.2724290688864117</v>
       </c>
       <c r="E3">
-        <v>0.1841814240169314</v>
+        <v>-0.03596938368624707</v>
       </c>
       <c r="F3">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,16 +499,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1439232018521708</v>
+        <v>0.06807588230551676</v>
       </c>
       <c r="D4">
-        <v>0.4762119307585325</v>
+        <v>0.1281521298942334</v>
       </c>
       <c r="E4">
-        <v>0.4123364772197573</v>
+        <v>0.1933056855961623</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,13 +519,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.09377292240016177</v>
+        <v>0.1456791931838317</v>
       </c>
       <c r="D5">
-        <v>0.2468978427726544</v>
+        <v>0.4854756577583055</v>
       </c>
       <c r="E5">
-        <v>0.2089811884510713</v>
+        <v>0.421112518131755</v>
       </c>
       <c r="F5">
         <v>0.7</v>
@@ -524,16 +539,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.07971117204077349</v>
+        <v>0.09590617915787547</v>
       </c>
       <c r="D6">
-        <v>0.1834211028599851</v>
+        <v>0.257213753974001</v>
       </c>
       <c r="E6">
-        <v>0.2299757617717839</v>
+        <v>0.2150339663683502</v>
       </c>
       <c r="F6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,13 +559,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.02768630034995989</v>
+        <v>0.04911831839711045</v>
       </c>
       <c r="D7">
-        <v>-0.05725673059850861</v>
+        <v>0.0420384357781019</v>
       </c>
       <c r="E7">
-        <v>0.05595234416579922</v>
+        <v>0.1054708851858788</v>
       </c>
       <c r="F7">
         <v>0.65</v>
@@ -564,13 +579,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1066015154572932</v>
+        <v>0.08148365157999682</v>
       </c>
       <c r="D8">
-        <v>0.3119632235877381</v>
+        <v>0.1919434412308816</v>
       </c>
       <c r="E8">
-        <v>0.2883245814311656</v>
+        <v>0.2374647896342137</v>
       </c>
       <c r="F8">
         <v>0.6</v>
@@ -584,15 +599,115 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.1363094146864432</v>
+        <v>0.04163061131374368</v>
       </c>
       <c r="D9">
-        <v>0.4526718879344949</v>
+        <v>0.007579553764119984</v>
       </c>
       <c r="E9">
-        <v>0.3823054671685182</v>
+        <v>0.08887837782381361</v>
       </c>
       <c r="F9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.02913452353797141</v>
+      </c>
+      <c r="D10">
+        <v>-0.0506013406936376</v>
+      </c>
+      <c r="E10">
+        <v>0.05946386808133608</v>
+      </c>
+      <c r="F10">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.03493635607172618</v>
+      </c>
+      <c r="D11">
+        <v>-0.02363564081140127</v>
+      </c>
+      <c r="E11">
+        <v>0.06302154792940354</v>
+      </c>
+      <c r="F11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.1076891698478961</v>
+      </c>
+      <c r="D12">
+        <v>0.3174160883517961</v>
+      </c>
+      <c r="E12">
+        <v>0.2908464548697806</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.1162713185358129</v>
+      </c>
+      <c r="D13">
+        <v>0.3583322117162747</v>
+      </c>
+      <c r="E13">
+        <v>0.3127413060261822</v>
+      </c>
+      <c r="F13">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.1369502950749582</v>
+      </c>
+      <c r="D14">
+        <v>0.4560864676717657</v>
+      </c>
+      <c r="E14">
+        <v>0.3837538813946265</v>
+      </c>
+      <c r="F14">
         <v>0.65</v>
       </c>
     </row>
